--- a/premise/data/additional_inventories/lci-combined-heat-power-plant-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-combined-heat-power-plant-CCS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC3121C-AA7F-4E45-A533-99246007C71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1310593D-04C5-6944-B5EB-AA3AF4DFB408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$115</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="0.01" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="58">
   <si>
     <t>Activity</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>heat production, at co-generation oil-fired power plant, post, pipeline 200km, storage 1000m</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, non-fossil</t>
+  </si>
+  <si>
+    <t>This amount is here to partially cancel the non-fossil CO2 emissions.</t>
   </si>
 </sst>
 </file>
@@ -537,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1126,149 +1132,144 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44">
+        <f>B43*-1</f>
+        <v>-1.5115380122292617</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>17</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
       </c>
       <c r="J54" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B55">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D55" t="s">
         <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="I55">
+        <v>100</v>
       </c>
       <c r="J55" t="s">
         <v>20</v>
@@ -1279,799 +1280,846 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B56">
-        <f>0.071962*B55*0.9</f>
-        <v>7.1242379999999994E-2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>22</v>
       </c>
       <c r="F56" t="s">
         <v>23</v>
       </c>
+      <c r="J56" t="s">
+        <v>20</v>
+      </c>
       <c r="K56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="B57">
+        <f>0.071962*B56*0.9</f>
+        <v>7.1242379999999994E-2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <f>B57*-1</f>
+        <v>-7.1242379999999994E-2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" t="s">
+        <v>35</v>
+      </c>
+      <c r="J58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" t="s">
-        <v>16</v>
-      </c>
-      <c r="J66" t="s">
-        <v>17</v>
-      </c>
-      <c r="K66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s">
         <v>9</v>
       </c>
-      <c r="E67" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67">
-        <v>100</v>
-      </c>
-      <c r="J67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K67" t="s">
-        <v>5</v>
+    </row>
+    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>30</v>
-      </c>
-      <c r="B68">
-        <v>1.08</v>
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
       </c>
       <c r="J68" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B69">
-        <f>0.44052*B68*0.9</f>
-        <v>0.42818544000000008</v>
+        <v>1</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="I69">
+        <v>100</v>
+      </c>
+      <c r="J69" t="s">
+        <v>20</v>
       </c>
       <c r="K69" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70">
+        <v>1.08</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71">
+        <f>0.44052*B70*0.9</f>
+        <v>0.42818544000000008</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>41</v>
       </c>
-      <c r="B70">
-        <f>B69*-1</f>
+      <c r="B72">
+        <f>B71*-1</f>
         <v>-0.42818544000000008</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D72" t="s">
         <v>26</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E72" t="s">
         <v>42</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F72" t="s">
         <v>35</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J72" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+    <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" t="s">
-        <v>15</v>
-      </c>
-      <c r="I80" t="s">
-        <v>16</v>
-      </c>
-      <c r="J80" t="s">
-        <v>17</v>
-      </c>
-      <c r="K80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>53</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" t="s">
-        <v>21</v>
-      </c>
-      <c r="E81" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="I81">
-        <v>100</v>
-      </c>
-      <c r="J81" t="s">
-        <v>20</v>
-      </c>
-      <c r="K81" t="s">
-        <v>31</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>30</v>
-      </c>
-      <c r="B82">
-        <v>1.08</v>
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" t="s">
+        <v>16</v>
       </c>
       <c r="J82" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K82" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B83">
-        <f>0.022542*B82*0.9</f>
-        <v>2.1910823999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="E83" t="s">
+        <v>18</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="I83">
+        <v>100</v>
+      </c>
+      <c r="J83" t="s">
+        <v>20</v>
       </c>
       <c r="K83" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84">
+        <v>1.08</v>
+      </c>
+      <c r="C84" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" t="s">
+        <v>23</v>
+      </c>
+      <c r="J84" t="s">
+        <v>20</v>
+      </c>
+      <c r="K84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85">
+        <f>0.022542*B84*0.9</f>
+        <v>2.1910823999999999E-2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>41</v>
       </c>
-      <c r="B84">
-        <f>B83*-1</f>
+      <c r="B86">
+        <f>B85*-1</f>
         <v>-2.1910823999999999E-2</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D86" t="s">
         <v>26</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E86" t="s">
         <v>42</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F86" t="s">
         <v>35</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J86" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>1</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>17</v>
-      </c>
-      <c r="B90" t="s">
-        <v>45</v>
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" t="s">
-        <v>6</v>
-      </c>
-      <c r="G94" t="s">
-        <v>14</v>
-      </c>
-      <c r="H94" t="s">
-        <v>15</v>
-      </c>
-      <c r="I94" t="s">
-        <v>16</v>
-      </c>
-      <c r="J94" t="s">
-        <v>17</v>
-      </c>
-      <c r="K94" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>54</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" t="s">
         <v>9</v>
       </c>
-      <c r="E95" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="I95">
-        <v>100</v>
-      </c>
-      <c r="J95" t="s">
-        <v>20</v>
-      </c>
-      <c r="K95" t="s">
-        <v>5</v>
+    </row>
+    <row r="95" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>32</v>
-      </c>
-      <c r="B96">
-        <v>1.0900000000000001</v>
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E96" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" t="s">
+        <v>16</v>
       </c>
       <c r="J96" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B97">
-        <f>0.58378*B96*0.9</f>
-        <v>0.57268817999999999</v>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="E97" t="s">
+        <v>18</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="I97">
+        <v>100</v>
+      </c>
+      <c r="J97" t="s">
+        <v>20</v>
       </c>
       <c r="K97" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98" t="s">
+        <v>23</v>
+      </c>
+      <c r="J98" t="s">
+        <v>20</v>
+      </c>
+      <c r="K98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>37</v>
+      </c>
+      <c r="B99">
+        <f>0.58378*B98*0.9</f>
+        <v>0.57268817999999999</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" t="s">
+        <v>23</v>
+      </c>
+      <c r="K99" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>41</v>
       </c>
-      <c r="B98">
-        <f>B97*-1</f>
+      <c r="B100">
+        <f>B99*-1</f>
         <v>-0.57268817999999999</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D100" t="s">
         <v>26</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E100" t="s">
         <v>42</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F100" t="s">
         <v>35</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J100" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+    <row r="102" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" t="s">
-        <v>1</v>
-      </c>
-      <c r="D108" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" t="s">
-        <v>6</v>
-      </c>
-      <c r="G108" t="s">
-        <v>14</v>
-      </c>
-      <c r="H108" t="s">
-        <v>15</v>
-      </c>
-      <c r="I108" t="s">
-        <v>16</v>
-      </c>
-      <c r="J108" t="s">
-        <v>17</v>
-      </c>
-      <c r="K108" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>55</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-      <c r="C109" t="s">
-        <v>2</v>
-      </c>
-      <c r="D109" t="s">
-        <v>21</v>
-      </c>
-      <c r="E109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="I109">
-        <v>100</v>
-      </c>
-      <c r="J109" t="s">
-        <v>20</v>
-      </c>
-      <c r="K109" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>32</v>
-      </c>
-      <c r="B110">
-        <v>1.0900000000000001</v>
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110" t="s">
+        <v>16</v>
       </c>
       <c r="J110" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K110" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B111">
-        <f>0.02987*B110*0.9</f>
-        <v>2.9302470000000004E-2</v>
+        <v>1</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="E111" t="s">
+        <v>18</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="I111">
+        <v>100</v>
+      </c>
+      <c r="J111" t="s">
+        <v>20</v>
       </c>
       <c r="K111" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C112" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" t="s">
+        <v>22</v>
+      </c>
+      <c r="F112" t="s">
+        <v>23</v>
+      </c>
+      <c r="J112" t="s">
+        <v>20</v>
+      </c>
+      <c r="K112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113">
+        <f>0.02987*B112*0.9</f>
+        <v>2.9302470000000004E-2</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>26</v>
+      </c>
+      <c r="F113" t="s">
+        <v>23</v>
+      </c>
+      <c r="K113" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>41</v>
       </c>
-      <c r="B112">
-        <f>B111*-1</f>
+      <c r="B114">
+        <f>B113*-1</f>
         <v>-2.9302470000000004E-2</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D114" t="s">
         <v>26</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E114" t="s">
         <v>42</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F114" t="s">
         <v>35</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J114" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K113" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
